--- a/biology/Microbiologie/Stemonitidaceae/Stemonitidaceae.xlsx
+++ b/biology/Microbiologie/Stemonitidaceae/Stemonitidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Stemonitidacae, Stemonitacae ou Stemonitidae, sont une famille de myxomycètes de l'ordre des Stemonitales ou des Stemonitida dans le règne des Amoebozoa[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Stemonitidacae, Stemonitacae ou Stemonitidae, sont une famille de myxomycètes de l'ordre des Stemonitales ou des Stemonitida dans le règne des Amoebozoa.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (12 novembre 2018)[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (12 novembre 2018) :
 genre Amaurochaete
 genre Brefeldia
 genre Collaria
@@ -531,7 +545,7 @@
 genre Stemonitis
 genre Stemonitopsis
 genre Symphytocarpus
-Selon ITIS      (12 novembre 2018)[7] :
+Selon ITIS      (12 novembre 2018) :
 genre Amaurochaeta Rostafinski, 1873
 genre Brefeldia
 genre Comatricha
@@ -541,7 +555,7 @@
 genre Macbrideola H. C. Gilbert, 1934
 genre Stemonitis
 genre Symphytocarpus B. Ing. &amp; Nannenga-bremekanp
-Selon NCBI  (12 novembre 2018)[4] :
+Selon NCBI  (12 novembre 2018) :
 genre Amaurochaete
 genre Brefeldia
 genre Collaria Nann.-Bremek. 1967
